--- a/nr-review/ig/CodeSystem-fr-additional-action-relationship-type.xlsx
+++ b/nr-review/ig/CodeSystem-fr-additional-action-relationship-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-11T07:30:40+00:00</t>
+    <t>2025-07-11T07:36:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-review/ig/CodeSystem-fr-additional-action-relationship-type.xlsx
+++ b/nr-review/ig/CodeSystem-fr-additional-action-relationship-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-11T07:36:43+00:00</t>
+    <t>2025-07-11T07:41:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-review/ig/CodeSystem-fr-additional-action-relationship-type.xlsx
+++ b/nr-review/ig/CodeSystem-fr-additional-action-relationship-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-11T07:41:04+00:00</t>
+    <t>2025-07-11T08:58:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-review/ig/CodeSystem-fr-additional-action-relationship-type.xlsx
+++ b/nr-review/ig/CodeSystem-fr-additional-action-relationship-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-11T08:58:20+00:00</t>
+    <t>2025-07-11T09:01:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-review/ig/CodeSystem-fr-additional-action-relationship-type.xlsx
+++ b/nr-review/ig/CodeSystem-fr-additional-action-relationship-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-11T09:01:56+00:00</t>
+    <t>2025-07-11T11:49:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-review/ig/CodeSystem-fr-additional-action-relationship-type.xlsx
+++ b/nr-review/ig/CodeSystem-fr-additional-action-relationship-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-11T11:49:25+00:00</t>
+    <t>2025-07-11T11:55:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-review/ig/CodeSystem-fr-additional-action-relationship-type.xlsx
+++ b/nr-review/ig/CodeSystem-fr-additional-action-relationship-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-11T11:55:35+00:00</t>
+    <t>2025-07-11T12:03:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-review/ig/CodeSystem-fr-additional-action-relationship-type.xlsx
+++ b/nr-review/ig/CodeSystem-fr-additional-action-relationship-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-11T12:03:33+00:00</t>
+    <t>2025-07-11T12:06:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-review/ig/CodeSystem-fr-additional-action-relationship-type.xlsx
+++ b/nr-review/ig/CodeSystem-fr-additional-action-relationship-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-11T12:06:27+00:00</t>
+    <t>2025-07-11T12:24:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-review/ig/CodeSystem-fr-additional-action-relationship-type.xlsx
+++ b/nr-review/ig/CodeSystem-fr-additional-action-relationship-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-11T12:24:54+00:00</t>
+    <t>2025-07-11T12:29:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -78,7 +78,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t/>
+    <t>FRANCE</t>
   </si>
   <si>
     <t>Description</t>

--- a/nr-review/ig/CodeSystem-fr-additional-action-relationship-type.xlsx
+++ b/nr-review/ig/CodeSystem-fr-additional-action-relationship-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-11T12:29:53+00:00</t>
+    <t>2025-07-11T12:36:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-review/ig/CodeSystem-fr-additional-action-relationship-type.xlsx
+++ b/nr-review/ig/CodeSystem-fr-additional-action-relationship-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-11T12:36:09+00:00</t>
+    <t>2025-07-11T12:44:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-review/ig/CodeSystem-fr-additional-action-relationship-type.xlsx
+++ b/nr-review/ig/CodeSystem-fr-additional-action-relationship-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-11T12:44:15+00:00</t>
+    <t>2025-07-11T12:52:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-review/ig/CodeSystem-fr-additional-action-relationship-type.xlsx
+++ b/nr-review/ig/CodeSystem-fr-additional-action-relationship-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-11T12:52:14+00:00</t>
+    <t>2025-07-11T13:00:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-review/ig/CodeSystem-fr-additional-action-relationship-type.xlsx
+++ b/nr-review/ig/CodeSystem-fr-additional-action-relationship-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-11T13:00:29+00:00</t>
+    <t>2025-07-15T07:25:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-review/ig/CodeSystem-fr-additional-action-relationship-type.xlsx
+++ b/nr-review/ig/CodeSystem-fr-additional-action-relationship-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-15T07:25:49+00:00</t>
+    <t>2025-07-18T11:27:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-review/ig/CodeSystem-fr-additional-action-relationship-type.xlsx
+++ b/nr-review/ig/CodeSystem-fr-additional-action-relationship-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-18T11:27:43+00:00</t>
+    <t>2025-07-18T11:28:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-review/ig/CodeSystem-fr-additional-action-relationship-type.xlsx
+++ b/nr-review/ig/CodeSystem-fr-additional-action-relationship-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-18T11:28:48+00:00</t>
+    <t>2025-07-18T11:31:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-review/ig/CodeSystem-fr-additional-action-relationship-type.xlsx
+++ b/nr-review/ig/CodeSystem-fr-additional-action-relationship-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-18T11:31:51+00:00</t>
+    <t>2025-07-18T11:43:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-review/ig/CodeSystem-fr-additional-action-relationship-type.xlsx
+++ b/nr-review/ig/CodeSystem-fr-additional-action-relationship-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-18T11:43:48+00:00</t>
+    <t>2025-07-18T13:01:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-review/ig/CodeSystem-fr-additional-action-relationship-type.xlsx
+++ b/nr-review/ig/CodeSystem-fr-additional-action-relationship-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-18T13:01:32+00:00</t>
+    <t>2025-07-18T13:25:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-review/ig/CodeSystem-fr-additional-action-relationship-type.xlsx
+++ b/nr-review/ig/CodeSystem-fr-additional-action-relationship-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-18T13:25:27+00:00</t>
+    <t>2025-07-18T13:29:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-review/ig/CodeSystem-fr-additional-action-relationship-type.xlsx
+++ b/nr-review/ig/CodeSystem-fr-additional-action-relationship-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-18T13:29:35+00:00</t>
+    <t>2025-07-18T13:32:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-review/ig/CodeSystem-fr-additional-action-relationship-type.xlsx
+++ b/nr-review/ig/CodeSystem-fr-additional-action-relationship-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-18T13:32:21+00:00</t>
+    <t>2025-07-18T13:36:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-review/ig/CodeSystem-fr-additional-action-relationship-type.xlsx
+++ b/nr-review/ig/CodeSystem-fr-additional-action-relationship-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-18T13:36:35+00:00</t>
+    <t>2025-07-18T14:10:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-review/ig/CodeSystem-fr-additional-action-relationship-type.xlsx
+++ b/nr-review/ig/CodeSystem-fr-additional-action-relationship-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-18T14:10:10+00:00</t>
+    <t>2025-07-18T14:20:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-review/ig/CodeSystem-fr-additional-action-relationship-type.xlsx
+++ b/nr-review/ig/CodeSystem-fr-additional-action-relationship-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-18T14:20:27+00:00</t>
+    <t>2025-07-18T14:22:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-review/ig/CodeSystem-fr-additional-action-relationship-type.xlsx
+++ b/nr-review/ig/CodeSystem-fr-additional-action-relationship-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-18T14:22:51+00:00</t>
+    <t>2025-07-18T14:33:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-review/ig/CodeSystem-fr-additional-action-relationship-type.xlsx
+++ b/nr-review/ig/CodeSystem-fr-additional-action-relationship-type.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-18T14:33:50+00:00</t>
+    <t>2025-07-21T08:56:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -136,12 +136,6 @@
   </si>
   <si>
     <t>1</t>
-  </si>
-  <si>
-    <t>EXCL</t>
-  </si>
-  <si>
-    <t>Si l'action est réalisée, l'action reliée ne doit pas être effectuée.</t>
   </si>
   <si>
     <t>ALT</t>
@@ -458,7 +452,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -490,18 +484,6 @@
       </c>
       <c r="D2" s="2"/>
     </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="B3" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="C3" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="D3" s="2"/>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/nr-review/ig/CodeSystem-fr-additional-action-relationship-type.xlsx
+++ b/nr-review/ig/CodeSystem-fr-additional-action-relationship-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-21T08:56:18+00:00</t>
+    <t>2025-07-21T09:00:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-review/ig/CodeSystem-fr-additional-action-relationship-type.xlsx
+++ b/nr-review/ig/CodeSystem-fr-additional-action-relationship-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-21T09:00:57+00:00</t>
+    <t>2025-07-21T09:13:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-review/ig/CodeSystem-fr-additional-action-relationship-type.xlsx
+++ b/nr-review/ig/CodeSystem-fr-additional-action-relationship-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-21T09:13:17+00:00</t>
+    <t>2025-07-21T13:05:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-review/ig/CodeSystem-fr-additional-action-relationship-type.xlsx
+++ b/nr-review/ig/CodeSystem-fr-additional-action-relationship-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-21T13:05:14+00:00</t>
+    <t>2025-07-21T13:09:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-review/ig/CodeSystem-fr-additional-action-relationship-type.xlsx
+++ b/nr-review/ig/CodeSystem-fr-additional-action-relationship-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-21T13:09:46+00:00</t>
+    <t>2025-07-22T16:47:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
